--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3332505.628581736</v>
+        <v>3331753.242567829</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1813150.607070972</v>
+        <v>1826523.172219059</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1534978.689076666</v>
+        <v>1486399.222216786</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6729150.850502262</v>
+        <v>6739375.062517812</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>280.7863479295448</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>129.532589332489</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>105.6383463425965</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>146.8340739597083</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -913,7 +913,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>222.6758335762522</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>47.80635646854012</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,31 +1053,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>11.88207107324368</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>7.211306606662872</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1144,16 +1144,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>346.4733456490601</v>
+        <v>96.28476329087884</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>209.6055627261014</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>165.6158245190444</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>42.96247126414337</v>
@@ -1423,7 +1423,7 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
-        <v>127.274321941861</v>
+        <v>81.89261498477816</v>
       </c>
       <c r="U11" t="n">
         <v>159.2039277954309</v>
@@ -1432,13 +1432,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.297770207079</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.57090943722719</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007152</v>
       </c>
       <c r="C13" t="n">
         <v>74.51179228035423</v>
@@ -1612,16 +1612,16 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5179724164079</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
         <v>226.8509454548578</v>
@@ -1660,7 +1660,7 @@
         <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
@@ -1672,7 +1672,7 @@
         <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>33.63182494412153</v>
       </c>
       <c r="Y14" t="n">
         <v>298.5345275142885</v>
@@ -1785,7 +1785,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497619</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3.730459270485958</v>
       </c>
       <c r="F17" t="n">
         <v>318.7342196110055</v>
@@ -1903,13 +1903,13 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V17" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>273.297770207079</v>
       </c>
       <c r="X17" t="n">
-        <v>50.60279708324313</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y17" t="n">
         <v>298.5345275142885</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C20" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D20" t="n">
-        <v>271.4144896369884</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F20" t="n">
         <v>318.7342196110055</v>
@@ -2098,10 +2098,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I20" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T20" t="n">
         <v>127.274321941861</v>
@@ -2140,16 +2140,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V20" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X20" t="n">
-        <v>291.5668045419573</v>
+        <v>278.3262916733221</v>
       </c>
       <c r="Y20" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C22" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D22" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E22" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F22" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G22" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H22" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I22" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S22" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T22" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U22" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662013</v>
       </c>
       <c r="V22" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W22" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X22" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y22" t="n">
         <v>126.8896660972066</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C23" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D23" t="n">
-        <v>287.5954430211825</v>
+        <v>128.1198936524527</v>
       </c>
       <c r="E23" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F23" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H23" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T23" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U23" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>128.0235138909289</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W23" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X23" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C25" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D25" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E25" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F25" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G25" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H25" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I25" t="n">
-        <v>37.77220663497644</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S25" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T25" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U25" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V25" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W25" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X25" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y25" t="n">
         <v>126.8896660972066</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.70232077195359</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>164.5918143518077</v>
       </c>
       <c r="D26" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2575,7 +2575,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>159.2039277954309</v>
@@ -2617,13 +2617,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035467</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
-        <v>318.7342196110055</v>
+        <v>71.73832450627533</v>
       </c>
       <c r="G29" t="n">
         <v>315.0398534825604</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>225.1862186554162</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>268.8013943095013</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C32" t="n">
-        <v>261.5553425373171</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D32" t="n">
-        <v>253.8983135507173</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E32" t="n">
-        <v>270.8692856898393</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F32" t="n">
-        <v>285.0370901405404</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G32" t="n">
-        <v>281.3427240120952</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H32" t="n">
-        <v>193.1538159843927</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I32" t="n">
-        <v>9.265341793678232</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.16001556357836</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T32" t="n">
-        <v>93.5771924713959</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U32" t="n">
-        <v>125.5067983249658</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V32" t="n">
-        <v>210.9973372587352</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W32" t="n">
-        <v>199.5271601745718</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X32" t="n">
-        <v>257.8696750714921</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>264.8373980438233</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>55.66753455960668</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C34" t="n">
-        <v>40.81466280988909</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D34" t="n">
-        <v>26.38837802172881</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E34" t="n">
-        <v>26.31482007460792</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F34" t="n">
-        <v>28.06427149437519</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G34" t="n">
-        <v>38.88310941676733</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H34" t="n">
-        <v>26.23536158333937</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I34" t="n">
-        <v>4.075077164511299</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>73.09951903449453</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T34" t="n">
-        <v>105.6734573686666</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U34" t="n">
-        <v>154.8959998957365</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V34" t="n">
-        <v>135.6311477826024</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W34" t="n">
-        <v>152.8086941033526</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X34" t="n">
-        <v>104.0511150500651</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.19253662674149</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>268.8013943095013</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>261.5553425373171</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>213.8248329886751</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>270.8692856898393</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>285.0370901405404</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>281.3427240120952</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>193.1538159843927</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>9.265341793678232</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>37.16001556357836</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>93.5771924713959</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>125.5067983249658</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>210.9973372587352</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>239.6006407366138</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>257.8696750714921</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>264.8373980438233</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.66753455960668</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>40.81466280988909</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>26.38837802172881</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>26.31482007460792</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>28.06427149437519</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>38.88310941676733</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>26.23536158333937</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>4.075077164511299</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.09951903449453</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>105.6734573686666</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>154.8959998957365</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>135.6311477826024</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>152.8086941033526</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>104.0511150500651</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.19253662674149</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>268.8013943095013</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>261.5553425373171</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>253.8983135507173</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
-        <v>270.8692856898393</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>285.0370901405404</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G38" t="n">
-        <v>250.534585243731</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>193.1538159843927</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.16001556357836</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>93.5771924713959</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
-        <v>125.5067983249658</v>
+        <v>122.8352329541617</v>
       </c>
       <c r="V38" t="n">
-        <v>210.9973372587352</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
-        <v>239.6006407366138</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>257.8696750714921</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>264.8373980438233</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>55.66753455960668</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>40.81466280988909</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>26.38837802172881</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>26.31482007460792</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>28.06427149437519</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>38.88310941676733</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>26.23536158333937</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>4.075077164511299</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.09951903449453</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
-        <v>105.6734573686666</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>154.8959998957365</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>135.6311477826024</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>152.8086941033526</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>104.0511150500651</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>93.19253662674149</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>362.7926687838178</v>
+        <v>360.121103413015</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>278.132183031904</v>
       </c>
       <c r="D41" t="n">
-        <v>347.8895880250338</v>
+        <v>345.218022654231</v>
       </c>
       <c r="E41" t="n">
-        <v>364.8605601641557</v>
+        <v>362.1889947933529</v>
       </c>
       <c r="F41" t="n">
-        <v>370.4260414524942</v>
+        <v>376.3567992440541</v>
       </c>
       <c r="G41" t="n">
-        <v>375.3339984864117</v>
+        <v>372.6624331156089</v>
       </c>
       <c r="H41" t="n">
-        <v>287.1450904587091</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>100.5850508971919</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>184.8969015749095</v>
       </c>
       <c r="U41" t="n">
-        <v>219.4980727992822</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>302.3170463622488</v>
       </c>
       <c r="W41" t="n">
-        <v>333.5919152109303</v>
+        <v>330.9203498401275</v>
       </c>
       <c r="X41" t="n">
-        <v>351.8609495458086</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>146.9872436631203</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>120.3060945489244</v>
+        <v>117.6345291781216</v>
       </c>
       <c r="F43" t="n">
-        <v>122.0555459686916</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>132.8743838910838</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2266360576558</v>
+        <v>117.555070686853</v>
       </c>
       <c r="I43" t="n">
-        <v>98.06635163882774</v>
+        <v>95.39478626802494</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.090793508811</v>
+        <v>62.08831077141589</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>196.9931664721803</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>226.9508568861161</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>179.3653831816445</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>187.1838111010579</v>
+        <v>184.5122457302551</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>362.7926687838178</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>355.5466170116335</v>
+        <v>352.8750516408307</v>
       </c>
       <c r="D44" t="n">
-        <v>347.8895880250338</v>
+        <v>345.218022654231</v>
       </c>
       <c r="E44" t="n">
-        <v>364.8605601641557</v>
+        <v>362.1889947933529</v>
       </c>
       <c r="F44" t="n">
-        <v>379.0283646148569</v>
+        <v>376.3567992440541</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>287.1450904587091</v>
+        <v>284.4735250879063</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>100.5850508971919</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.915855106868136</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>131.1512900378948</v>
+        <v>128.479724667092</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>166.2854744983715</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>216.8265074284794</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>333.5919152109303</v>
+        <v>330.9203498401275</v>
       </c>
       <c r="X44" t="n">
-        <v>351.8609495458086</v>
+        <v>349.1893841750058</v>
       </c>
       <c r="Y44" t="n">
-        <v>95.61598596693524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>149.6588090339231</v>
+        <v>146.9872436631203</v>
       </c>
       <c r="C46" t="n">
-        <v>134.8059372842055</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.3796524960453</v>
+        <v>117.7080871252425</v>
       </c>
       <c r="E46" t="n">
-        <v>120.3060945489244</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>132.8743838910838</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>52.33788928453787</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>196.9931664721803</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>19.97762814898319</v>
       </c>
       <c r="V46" t="n">
-        <v>229.6224222569189</v>
+        <v>226.9508568861161</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>244.1284032068662</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>195.3708241535788</v>
       </c>
       <c r="Y46" t="n">
-        <v>187.1838111010579</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1262.811292866895</v>
+        <v>815.332097010006</v>
       </c>
       <c r="C2" t="n">
-        <v>1262.811292866895</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="D2" t="n">
-        <v>877.3701640835627</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3701640835627</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F2" t="n">
-        <v>460.4757256135405</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4336,46 +4336,46 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>666.9511603618604</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>1212.952060406441</v>
       </c>
       <c r="N2" t="n">
-        <v>2118.077574438405</v>
+        <v>1740.763344043903</v>
       </c>
       <c r="O2" t="n">
-        <v>2118.077574438405</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="P2" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U2" t="n">
-        <v>2161.142036303753</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V2" t="n">
-        <v>2030.301036978006</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W2" t="n">
-        <v>1659.302001946294</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="X2" t="n">
-        <v>1659.302001946294</v>
+        <v>1211.822806089405</v>
       </c>
       <c r="Y2" t="n">
-        <v>1262.811292866895</v>
+        <v>815.332097010006</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>47.31297010154367</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>272.5108437565973</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>858.0088487631995</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N3" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="C4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H4" t="n">
-        <v>1464.201482535628</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>1464.201482535628</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
-        <v>1546.036523645569</v>
+        <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>1710.164163519369</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
-        <v>1896.455741857633</v>
+        <v>479.5672294235493</v>
       </c>
       <c r="N4" t="n">
-        <v>2079.645375888842</v>
+        <v>662.7568634547586</v>
       </c>
       <c r="O4" t="n">
-        <v>2242.350142930551</v>
+        <v>825.4616304964666</v>
       </c>
       <c r="P4" t="n">
-        <v>2362.226308707129</v>
+        <v>945.3377962730451</v>
       </c>
       <c r="Q4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>2365.64850507718</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>2365.64850507718</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T4" t="n">
-        <v>2129.929453245415</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U4" t="n">
-        <v>2129.929453245415</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="V4" t="n">
-        <v>1981.612206821467</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="W4" t="n">
-        <v>1698.281804752644</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="X4" t="n">
-        <v>1464.201482535628</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="Y4" t="n">
-        <v>1464.201482535628</v>
+        <v>287.1127958105228</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.197549394652</v>
+        <v>1824.914774532537</v>
       </c>
       <c r="C5" t="n">
-        <v>1658.022047897582</v>
+        <v>1431.739273035468</v>
       </c>
       <c r="D5" t="n">
-        <v>1658.022047897582</v>
+        <v>1431.739273035468</v>
       </c>
       <c r="E5" t="n">
-        <v>1255.438523014127</v>
+        <v>1029.155748152012</v>
       </c>
       <c r="F5" t="n">
-        <v>838.5440845441043</v>
+        <v>612.2613096819898</v>
       </c>
       <c r="G5" t="n">
-        <v>425.3813290321074</v>
+        <v>199.0985541699929</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>199.0985541699929</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411553</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="J5" t="n">
-        <v>206.7689006129436</v>
+        <v>205.4112101712859</v>
       </c>
       <c r="K5" t="n">
-        <v>565.7512566404055</v>
+        <v>564.3935661987477</v>
       </c>
       <c r="L5" t="n">
-        <v>1059.071548358934</v>
+        <v>1057.713857917277</v>
       </c>
       <c r="M5" t="n">
-        <v>1605.072448403515</v>
+        <v>1603.714757961857</v>
       </c>
       <c r="N5" t="n">
-        <v>2132.883732040977</v>
+        <v>2131.526041599319</v>
       </c>
       <c r="O5" t="n">
-        <v>2572.923332933306</v>
+        <v>2571.565642491648</v>
       </c>
       <c r="P5" t="n">
-        <v>2921.110825064828</v>
+        <v>2919.75313462317</v>
       </c>
       <c r="Q5" t="n">
-        <v>3105.956385205776</v>
+        <v>3038.071863122887</v>
       </c>
       <c r="R5" t="n">
-        <v>3067.963471491298</v>
+        <v>3038.071863122887</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432349</v>
+        <v>2871.558308063938</v>
       </c>
       <c r="T5" t="n">
-        <v>2677.949313991765</v>
+        <v>2823.269059105817</v>
       </c>
       <c r="U5" t="n">
-        <v>2422.196584426364</v>
+        <v>2567.516329540415</v>
       </c>
       <c r="V5" t="n">
-        <v>2422.196584426364</v>
+        <v>2225.409520243934</v>
       </c>
       <c r="W5" t="n">
-        <v>2051.197549394652</v>
+        <v>2225.409520243934</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.197549394652</v>
+        <v>2225.409520243934</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.197549394652</v>
+        <v>2225.409520243934</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861.4851108441464</v>
+        <v>860.1274204024887</v>
       </c>
       <c r="C6" t="n">
-        <v>710.8308804042387</v>
+        <v>709.4731899625809</v>
       </c>
       <c r="D6" t="n">
-        <v>580.741913025719</v>
+        <v>579.3842225840613</v>
       </c>
       <c r="E6" t="n">
-        <v>444.2954221366068</v>
+        <v>442.937731694949</v>
       </c>
       <c r="F6" t="n">
-        <v>319.8636160197386</v>
+        <v>318.5059255780808</v>
       </c>
       <c r="G6" t="n">
-        <v>199.803798091603</v>
+        <v>198.4461076499452</v>
       </c>
       <c r="H6" t="n">
-        <v>111.5063816922039</v>
+        <v>110.1486912505462</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411553</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="J6" t="n">
-        <v>175.2341099238429</v>
+        <v>173.8764194821851</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>173.8764194821851</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>173.8764194821851</v>
       </c>
       <c r="M6" t="n">
-        <v>1286.571845448837</v>
+        <v>801.6480691088664</v>
       </c>
       <c r="N6" t="n">
-        <v>1942.349816659396</v>
+        <v>1222.590229375824</v>
       </c>
       <c r="O6" t="n">
-        <v>1942.349816659396</v>
+        <v>1739.110511966806</v>
       </c>
       <c r="P6" t="n">
-        <v>2347.971185375794</v>
+        <v>2144.731880683203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2380.454662679751</v>
+        <v>2379.096972238094</v>
       </c>
       <c r="R6" t="n">
-        <v>2356.537619577816</v>
+        <v>2355.179929136158</v>
       </c>
       <c r="S6" t="n">
-        <v>2221.606942477685</v>
+        <v>2220.249252036027</v>
       </c>
       <c r="T6" t="n">
-        <v>2044.623130676593</v>
+        <v>2043.265440234935</v>
       </c>
       <c r="U6" t="n">
-        <v>1834.559987355235</v>
+        <v>1833.202296913577</v>
       </c>
       <c r="V6" t="n">
-        <v>1612.019985726302</v>
+        <v>1610.662295284644</v>
       </c>
       <c r="W6" t="n">
-        <v>1381.902739859589</v>
+        <v>1380.545049417931</v>
       </c>
       <c r="X6" t="n">
-        <v>1192.595662209601</v>
+        <v>1191.237971767943</v>
       </c>
       <c r="Y6" t="n">
-        <v>1013.281445285108</v>
+        <v>1011.92375484345</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>393.8458771414902</v>
+        <v>541.281389280943</v>
       </c>
       <c r="C7" t="n">
-        <v>393.8458771414902</v>
+        <v>529.2792972877676</v>
       </c>
       <c r="D7" t="n">
-        <v>393.8458771414902</v>
+        <v>373.6461841902823</v>
       </c>
       <c r="E7" t="n">
-        <v>393.8458771414902</v>
+        <v>218.0873720494848</v>
       </c>
       <c r="F7" t="n">
-        <v>393.8458771414902</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="G7" t="n">
-        <v>225.5918232409357</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411553</v>
+        <v>60.76143726245775</v>
       </c>
       <c r="K7" t="n">
-        <v>143.9541688140574</v>
+        <v>142.5964783723996</v>
       </c>
       <c r="L7" t="n">
-        <v>308.0818086878572</v>
+        <v>306.7241182461994</v>
       </c>
       <c r="M7" t="n">
-        <v>494.3733870261212</v>
+        <v>493.0156965844634</v>
       </c>
       <c r="N7" t="n">
-        <v>677.5630210573304</v>
+        <v>676.2053306156727</v>
       </c>
       <c r="O7" t="n">
-        <v>840.2677880990384</v>
+        <v>838.9100976573807</v>
       </c>
       <c r="P7" t="n">
-        <v>960.1439538756169</v>
+        <v>958.7862634339592</v>
       </c>
       <c r="Q7" t="n">
-        <v>963.5661502456679</v>
+        <v>962.2084598040102</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>962.2084598040102</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>962.2084598040102</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>726.4894079722443</v>
       </c>
       <c r="U7" t="n">
-        <v>393.8458771414902</v>
+        <v>726.4894079722443</v>
       </c>
       <c r="V7" t="n">
-        <v>393.8458771414902</v>
+        <v>726.4894079722443</v>
       </c>
       <c r="W7" t="n">
-        <v>393.8458771414902</v>
+        <v>726.4894079722443</v>
       </c>
       <c r="X7" t="n">
-        <v>393.8458771414902</v>
+        <v>726.4894079722443</v>
       </c>
       <c r="Y7" t="n">
-        <v>393.8458771414902</v>
+        <v>726.4894079722443</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.378719202693</v>
+        <v>2211.713593757527</v>
       </c>
       <c r="C8" t="n">
-        <v>1196.203217705624</v>
+        <v>1818.538092260458</v>
       </c>
       <c r="D8" t="n">
-        <v>810.7620889222912</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E8" t="n">
-        <v>408.1785640388358</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F8" t="n">
-        <v>395.3245296092176</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G8" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U8" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V8" t="n">
-        <v>2335.842504695284</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.842504695284</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X8" t="n">
-        <v>1985.869428282092</v>
+        <v>3008.699048548323</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.378719202693</v>
+        <v>2612.208339468924</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N9" t="n">
-        <v>1829.234834439669</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O9" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P9" t="n">
-        <v>2345.75511703065</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.3242456381263</v>
+        <v>387.9573587356116</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D10" t="n">
         <v>62.11912770411553</v>
@@ -4995,19 +4995,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>678.1273584875689</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>466.4045678551432</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>232.3242456381263</v>
+        <v>796.2774386102695</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.3242456381263</v>
+        <v>573.1653774269129</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.211875180718</v>
+        <v>1642.069506034397</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.977054970837</v>
+        <v>1343.834685824516</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707834</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5071,22 +5071,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T11" t="n">
-        <v>2905.82359028062</v>
+        <v>2951.663698318078</v>
       </c>
       <c r="U11" t="n">
-        <v>2745.011542002408</v>
+        <v>2790.851650039865</v>
       </c>
       <c r="V11" t="n">
-        <v>2497.845413993115</v>
+        <v>2543.685522030571</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2543.685522030571</v>
       </c>
       <c r="X11" t="n">
-        <v>2221.78706024859</v>
+        <v>2249.173598250816</v>
       </c>
       <c r="Y11" t="n">
-        <v>2176.765939604927</v>
+        <v>1947.623570458606</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551006</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082782</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979813</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443721</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445333</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5208,16 +5208,16 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
         <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
         <v>1678.203301484817</v>
@@ -5232,19 +5232,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852103</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592136</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1448.730965405811</v>
+        <v>1580.711427684574</v>
       </c>
       <c r="C14" t="n">
-        <v>1150.49614519593</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D14" t="n">
-        <v>859.9956976997858</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>552.3528541035187</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>552.3528541035187</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
         <v>334.6579324707834</v>
@@ -5308,22 +5308,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V14" t="n">
-        <v>2626.405335146509</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W14" t="n">
-        <v>2350.346981401985</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2055.83505762223</v>
+        <v>2187.815519900993</v>
       </c>
       <c r="Y14" t="n">
-        <v>1754.28502983002</v>
+        <v>1886.265492108782</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551001</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979808</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443716</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311667</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798491</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5442,13 +5442,13 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
@@ -5469,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.66272518521</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553814</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.351704359213</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1563.569031584451</v>
+        <v>1567.337172261709</v>
       </c>
       <c r="C17" t="n">
-        <v>1265.33421137457</v>
+        <v>1269.102352051828</v>
       </c>
       <c r="D17" t="n">
-        <v>974.8337638784258</v>
+        <v>978.6019045556843</v>
       </c>
       <c r="E17" t="n">
         <v>974.8337638784258</v>
@@ -5551,16 +5551,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V17" t="n">
-        <v>2497.845413993115</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W17" t="n">
-        <v>2221.78706024859</v>
+        <v>2468.953188257884</v>
       </c>
       <c r="X17" t="n">
-        <v>2170.67312380087</v>
+        <v>2174.441264478129</v>
       </c>
       <c r="Y17" t="n">
-        <v>1869.12309600866</v>
+        <v>1872.891236685918</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5679,7 +5679,7 @@
         <v>300.2831496757665</v>
       </c>
       <c r="L19" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M19" t="n">
         <v>836.8050913469772</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1625.725108676625</v>
+        <v>1580.711427684574</v>
       </c>
       <c r="C20" t="n">
-        <v>1327.490288466744</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D20" t="n">
-        <v>1053.334238328372</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E20" t="n">
-        <v>745.6913947321048</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F20" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G20" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H20" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5788,16 +5788,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V20" t="n">
-        <v>2497.845413993115</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="W20" t="n">
-        <v>2221.78706024859</v>
+        <v>2468.953188257884</v>
       </c>
       <c r="X20" t="n">
-        <v>1927.275136468836</v>
+        <v>2187.815519900993</v>
       </c>
       <c r="Y20" t="n">
-        <v>1625.725108676625</v>
+        <v>1886.265492108782</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1920.837450676059</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C22" t="n">
-        <v>1845.573014029236</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D22" t="n">
-        <v>1784.880582218939</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E22" t="n">
-        <v>1724.26245136533</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F22" t="n">
-        <v>1661.877197865492</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G22" t="n">
-        <v>1588.563825252126</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H22" t="n">
-        <v>1528.025955500808</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I22" t="n">
-        <v>1489.872211425074</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>1553.14983055721</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K22" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L22" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M22" t="n">
-        <v>2264.558175067936</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N22" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O22" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P22" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R22" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S22" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T22" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U22" t="n">
-        <v>2637.84419357979</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V22" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W22" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X22" t="n">
-        <v>2139.27616797634</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y22" t="n">
-        <v>2011.104788080172</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1509.593365335563</v>
+        <v>1480.983092530629</v>
       </c>
       <c r="C23" t="n">
-        <v>1211.358545125682</v>
+        <v>1182.748272320748</v>
       </c>
       <c r="D23" t="n">
-        <v>920.8580976295375</v>
+        <v>1053.334238328372</v>
       </c>
       <c r="E23" t="n">
-        <v>613.2152540332704</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F23" t="n">
-        <v>291.2614968504365</v>
+        <v>423.7376375492708</v>
       </c>
       <c r="G23" t="n">
-        <v>291.2614968504365</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6016,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="T23" t="n">
-        <v>2977.396464052381</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U23" t="n">
-        <v>2816.584415774169</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="V23" t="n">
-        <v>2687.267735076261</v>
+        <v>2658.657462271327</v>
       </c>
       <c r="W23" t="n">
-        <v>2411.209381331736</v>
+        <v>2382.599108526803</v>
       </c>
       <c r="X23" t="n">
-        <v>2116.697457551982</v>
+        <v>2088.087184747048</v>
       </c>
       <c r="Y23" t="n">
-        <v>1815.147429759771</v>
+        <v>1786.537156954838</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>378.9738643893075</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C25" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D25" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E25" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F25" t="n">
-        <v>234.1241141445331</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G25" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H25" t="n">
         <v>100.2728717798493</v>
@@ -6147,52 +6147,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K25" t="n">
-        <v>300.2831496757668</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L25" t="n">
-        <v>557.4621512791398</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M25" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N25" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O25" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P25" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q25" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R25" t="n">
         <v>1649.242993404582</v>
       </c>
       <c r="S25" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T25" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U25" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V25" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W25" t="n">
-        <v>850.6627251852103</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X25" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y25" t="n">
-        <v>583.3517043592134</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1549.258117997884</v>
+        <v>1448.730965405812</v>
       </c>
       <c r="C26" t="n">
-        <v>1251.023297788003</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="D26" t="n">
-        <v>960.522850291859</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E26" t="n">
-        <v>652.8800066955919</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F26" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G26" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H26" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6256,22 +6256,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T26" t="n">
-        <v>2905.82359028062</v>
+        <v>3034.383511434015</v>
       </c>
       <c r="U26" t="n">
-        <v>2745.011542002408</v>
+        <v>2873.571463155803</v>
       </c>
       <c r="V26" t="n">
-        <v>2497.845413993115</v>
+        <v>2626.40533514651</v>
       </c>
       <c r="W26" t="n">
-        <v>2221.78706024859</v>
+        <v>2350.346981401985</v>
       </c>
       <c r="X26" t="n">
-        <v>1927.275136468836</v>
+        <v>2055.835057622231</v>
       </c>
       <c r="Y26" t="n">
-        <v>1625.725108676625</v>
+        <v>1754.28502983002</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L27" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M27" t="n">
-        <v>1208.156408878212</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N27" t="n">
-        <v>1863.93438008877</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551006</v>
       </c>
       <c r="C28" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D28" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E28" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F28" t="n">
-        <v>234.1241141445332</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G28" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H28" t="n">
         <v>100.2728717798493</v>
@@ -6384,19 +6384,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N28" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
         <v>1368.802215879041</v>
@@ -6420,16 +6420,16 @@
         <v>1210.091109858832</v>
       </c>
       <c r="V28" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X28" t="n">
         <v>711.5230842553817</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592135</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1529.58061935049</v>
+        <v>1621.721072044627</v>
       </c>
       <c r="C29" t="n">
-        <v>1529.58061935049</v>
+        <v>1323.486251834746</v>
       </c>
       <c r="D29" t="n">
-        <v>1239.080171854346</v>
+        <v>1032.985804338602</v>
       </c>
       <c r="E29" t="n">
-        <v>931.4373282580789</v>
+        <v>725.3429607423345</v>
       </c>
       <c r="F29" t="n">
-        <v>609.483571075245</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G29" t="n">
-        <v>291.2614968504365</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
         <v>1059.071548358934</v>
@@ -6481,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6496,19 +6496,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U29" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V29" t="n">
-        <v>2658.657462271327</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W29" t="n">
-        <v>2431.196635346664</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X29" t="n">
-        <v>2136.684711566909</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y29" t="n">
-        <v>1835.134683774699</v>
+        <v>1927.275136468835</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1493.196009291336</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>493.0843669551004</v>
+        <v>493.0843669551003</v>
       </c>
       <c r="C31" t="n">
-        <v>417.819930308278</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E31" t="n">
         <v>296.5093676443719</v>
@@ -6612,28 +6612,28 @@
         <v>234.1241141445332</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
       </c>
       <c r="L31" t="n">
-        <v>557.4621512791394</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
         <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O31" t="n">
         <v>1368.802215879041</v>
@@ -6648,25 +6648,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S31" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T31" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.949343571368</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C32" t="n">
-        <v>1368.752027877109</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D32" t="n">
-        <v>1112.289084896586</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E32" t="n">
-        <v>838.6837458159403</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F32" t="n">
-        <v>550.7674931487278</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G32" t="n">
-        <v>266.5829234395407</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>71.47805880884101</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K32" t="n">
         <v>565.7512566404055</v>
@@ -6718,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3068.421015949637</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T32" t="n">
-        <v>2973.898599311863</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U32" t="n">
-        <v>2847.124055549271</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V32" t="n">
-        <v>2633.995432055599</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W32" t="n">
-        <v>2432.452846020678</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X32" t="n">
-        <v>2171.978426756545</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y32" t="n">
-        <v>1904.465903479955</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
         <v>175.2341099238429</v>
@@ -6788,13 +6788,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1490.311599914302</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>2146.089571124861</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O33" t="n">
-        <v>2146.089571124861</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>254.8218353457509</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C34" t="n">
-        <v>213.5949032145498</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D34" t="n">
-        <v>186.9399759198742</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E34" t="n">
-        <v>160.3593495818864</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F34" t="n">
-        <v>132.0116005976691</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G34" t="n">
-        <v>92.73573249992428</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H34" t="n">
-        <v>66.23536726422795</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>110.8218832233757</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>192.6569243333176</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>356.7845642071173</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M34" t="n">
-        <v>543.0761425453813</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N34" t="n">
-        <v>726.2657765765905</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O34" t="n">
-        <v>888.9705436182986</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P34" t="n">
-        <v>1008.846709394877</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1138.680425670262</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>1138.680425670262</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>1064.842527655621</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>958.1016616266647</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U34" t="n">
-        <v>801.6410556713754</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V34" t="n">
-        <v>664.6398962950093</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W34" t="n">
-        <v>510.2876800289966</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X34" t="n">
-        <v>405.1855436147894</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y34" t="n">
-        <v>311.0516682342425</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1592.471080377386</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1328.273764683127</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1112.289084896586</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>838.6837458159403</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F35" t="n">
-        <v>550.7674931487278</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>266.5829234395407</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>71.47805880884101</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
         <v>1605.072448403515</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3068.421015949637</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2973.898599311863</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2847.124055549271</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2633.995432055599</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2391.974582826696</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2131.500163562563</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1863.987640285973</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.359996292367</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.359996292367</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M36" t="n">
-        <v>1735.131645919048</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N36" t="n">
-        <v>2390.909617129607</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2700.335016489379</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>254.8218353457509</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>213.5949032145498</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>186.9399759198742</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>160.3593495818864</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>132.0116005976691</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>92.73573249992428</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>66.23536726422795</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7104,43 +7104,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>721.2896163502683</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>883.9943833919763</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1130.282069073889</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1133.704265443939</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
-        <v>1138.680425670262</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1064.842527655621</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>958.1016616266647</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>801.6410556713754</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>664.6398962950093</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>510.2876800289966</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>405.1855436147894</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>311.0516682342425</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1592.471080377386</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1328.273764683127</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1071.810821702604</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>798.205482621958</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>510.2892299547455</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>257.2239923348152</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>68.77950792924221</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7201,25 +7201,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3068.421015949637</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2973.898599311863</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2847.124055549271</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2633.995432055599</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2391.974582826696</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2131.500163562563</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1863.987640285973</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.359996292367</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>1590.92608219068</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1590.92608219068</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1949.449642343508</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O39" t="n">
-        <v>2465.969924934489</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P39" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>254.8218353457509</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>213.5949032145498</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>186.9399759198742</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>160.3593495818864</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>132.0116005976691</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>92.73573249992428</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H40" t="n">
-        <v>66.23536726422795</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>158.7569050120118</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>240.5919461219537</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L40" t="n">
-        <v>404.7195859957535</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M40" t="n">
-        <v>591.0111643340175</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N40" t="n">
-        <v>852.6772964819245</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O40" t="n">
-        <v>1015.382063523632</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P40" t="n">
-        <v>1135.258229300211</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1138.680425670262</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
-        <v>1138.680425670262</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>1064.842527655621</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>958.1016616266647</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>801.6410556713754</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>664.6398962950093</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>510.2876800289966</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>405.1855436147894</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>311.0516682342425</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1825.407287892807</v>
+        <v>1915.799414306482</v>
       </c>
       <c r="C41" t="n">
-        <v>1825.407287892807</v>
+        <v>1634.857815284357</v>
       </c>
       <c r="D41" t="n">
-        <v>1474.003663625096</v>
+        <v>1286.152741896245</v>
       </c>
       <c r="E41" t="n">
-        <v>1105.457643257262</v>
+        <v>920.3052724080094</v>
       </c>
       <c r="F41" t="n">
-        <v>731.289924618379</v>
+        <v>540.1468893332072</v>
       </c>
       <c r="G41" t="n">
-        <v>352.1646736220035</v>
+        <v>163.7201892164306</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>163.7201892164306</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7441,22 +7441,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2919.191838160413</v>
       </c>
       <c r="U41" t="n">
-        <v>2884.241160155996</v>
+        <v>2919.191838160413</v>
       </c>
       <c r="V41" t="n">
-        <v>2884.241160155996</v>
+        <v>2613.821084259151</v>
       </c>
       <c r="W41" t="n">
-        <v>2547.279629639905</v>
+        <v>2279.558104622659</v>
       </c>
       <c r="X41" t="n">
-        <v>2191.864529088583</v>
+        <v>2279.558104622659</v>
       </c>
       <c r="Y41" t="n">
-        <v>2191.864529088583</v>
+        <v>2279.558104622659</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>661.6433823558159</v>
+        <v>396.0427500606807</v>
       </c>
       <c r="C43" t="n">
-        <v>661.6433823558159</v>
+        <v>396.0427500606807</v>
       </c>
       <c r="D43" t="n">
-        <v>661.6433823558159</v>
+        <v>396.0427500606807</v>
       </c>
       <c r="E43" t="n">
-        <v>540.1220747306397</v>
+        <v>277.2199933151034</v>
       </c>
       <c r="F43" t="n">
-        <v>416.8336444592341</v>
+        <v>277.2199933151034</v>
       </c>
       <c r="G43" t="n">
-        <v>282.6170950743009</v>
+        <v>277.2199933151034</v>
       </c>
       <c r="H43" t="n">
-        <v>161.1760485514163</v>
+        <v>158.4774976718175</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>65.70554328243854</v>
+        <v>68.3503929995333</v>
       </c>
       <c r="K43" t="n">
-        <v>180.9007425681409</v>
+        <v>186.1904420023304</v>
       </c>
       <c r="L43" t="n">
-        <v>378.3885406177012</v>
+        <v>386.3230897689855</v>
       </c>
       <c r="M43" t="n">
-        <v>598.0402771317257</v>
+        <v>608.6196760001047</v>
       </c>
       <c r="N43" t="n">
-        <v>814.5900693386955</v>
+        <v>827.8143179241692</v>
       </c>
       <c r="O43" t="n">
-        <v>1010.654994556164</v>
+        <v>1026.524092858733</v>
       </c>
       <c r="P43" t="n">
-        <v>1163.891318508503</v>
+        <v>1182.405266528166</v>
       </c>
       <c r="Q43" t="n">
-        <v>1200.673673054314</v>
+        <v>1221.832470791072</v>
       </c>
       <c r="R43" t="n">
-        <v>1200.673673054314</v>
+        <v>1221.832470791072</v>
       </c>
       <c r="S43" t="n">
-        <v>1031.895093752485</v>
+        <v>1159.1170053654</v>
       </c>
       <c r="T43" t="n">
-        <v>1031.895093752485</v>
+        <v>960.134008928854</v>
       </c>
       <c r="U43" t="n">
-        <v>1031.895093752485</v>
+        <v>960.134008928854</v>
       </c>
       <c r="V43" t="n">
-        <v>1031.895093752485</v>
+        <v>730.8907191448983</v>
       </c>
       <c r="W43" t="n">
-        <v>1031.895093752485</v>
+        <v>730.8907191448983</v>
       </c>
       <c r="X43" t="n">
-        <v>850.7179390235513</v>
+        <v>730.8907191448983</v>
       </c>
       <c r="Y43" t="n">
-        <v>661.6433823558159</v>
+        <v>544.5147133567618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1814.109249193398</v>
+        <v>1902.217556307719</v>
       </c>
       <c r="C44" t="n">
-        <v>1454.97125221195</v>
+        <v>1545.77811020587</v>
       </c>
       <c r="D44" t="n">
-        <v>1103.567627944239</v>
+        <v>1197.073036817757</v>
       </c>
       <c r="E44" t="n">
-        <v>735.0216075764044</v>
+        <v>831.2255673295219</v>
       </c>
       <c r="F44" t="n">
-        <v>352.1646736220035</v>
+        <v>451.0671842547198</v>
       </c>
       <c r="G44" t="n">
-        <v>352.1646736220035</v>
+        <v>451.0671842547198</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411553</v>
+        <v>163.7201892164306</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7666,34 +7666,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3102.00097600692</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2969.524925463591</v>
+        <v>2976.178885542046</v>
       </c>
       <c r="T44" t="n">
-        <v>2969.524925463591</v>
+        <v>2808.213759786116</v>
       </c>
       <c r="U44" t="n">
-        <v>2969.524925463591</v>
+        <v>2589.197085615934</v>
       </c>
       <c r="V44" t="n">
-        <v>2969.524925463591</v>
+        <v>2589.197085615934</v>
       </c>
       <c r="W44" t="n">
-        <v>2632.5633949475</v>
+        <v>2254.934105979442</v>
       </c>
       <c r="X44" t="n">
-        <v>2277.148294396179</v>
+        <v>1902.217556307719</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.566490389173</v>
+        <v>1902.217556307719</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7733,19 +7733,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>575.6202067144782</v>
+        <v>181.0161854063806</v>
       </c>
       <c r="C46" t="n">
-        <v>439.4525932960887</v>
+        <v>181.0161854063806</v>
       </c>
       <c r="D46" t="n">
-        <v>317.8569847142248</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E46" t="n">
-        <v>196.3356770890486</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F46" t="n">
-        <v>196.3356770890486</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>65.70554328243854</v>
+        <v>68.3503929995333</v>
       </c>
       <c r="K46" t="n">
-        <v>180.9007425681409</v>
+        <v>186.1904420023304</v>
       </c>
       <c r="L46" t="n">
-        <v>378.3885406177012</v>
+        <v>386.3230897689855</v>
       </c>
       <c r="M46" t="n">
-        <v>598.0402771317257</v>
+        <v>608.6196760001047</v>
       </c>
       <c r="N46" t="n">
-        <v>814.5900693386955</v>
+        <v>827.8143179241692</v>
       </c>
       <c r="O46" t="n">
-        <v>1010.654994556164</v>
+        <v>1026.524092858733</v>
       </c>
       <c r="P46" t="n">
-        <v>1163.891318508503</v>
+        <v>1182.405266528166</v>
       </c>
       <c r="Q46" t="n">
-        <v>1200.673673054314</v>
+        <v>1221.832470791072</v>
       </c>
       <c r="R46" t="n">
-        <v>1147.807118221448</v>
+        <v>1221.832470791072</v>
       </c>
       <c r="S46" t="n">
-        <v>1147.807118221448</v>
+        <v>1221.832470791072</v>
       </c>
       <c r="T46" t="n">
-        <v>1147.807118221448</v>
+        <v>1022.849474354527</v>
       </c>
       <c r="U46" t="n">
-        <v>1147.807118221448</v>
+        <v>1002.670051981816</v>
       </c>
       <c r="V46" t="n">
-        <v>915.8652775578935</v>
+        <v>773.4267621978607</v>
       </c>
       <c r="W46" t="n">
-        <v>915.8652775578935</v>
+        <v>526.8324155242585</v>
       </c>
       <c r="X46" t="n">
-        <v>915.8652775578935</v>
+        <v>329.4881487024618</v>
       </c>
       <c r="Y46" t="n">
-        <v>726.7907208901581</v>
+        <v>329.4881487024618</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>270.4260094517309</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
@@ -7993,13 +7993,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>400.3730943507992</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>680.3186616794904</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8236,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>264.012565589824</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8300,22 +8300,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>510.5662141339224</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>123.7997463922351</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8470,7 +8470,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8534,16 +8534,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>747.7741039759435</v>
+        <v>711.5734917843249</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8552,7 +8552,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.0381992661173</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8780,16 +8780,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>436.6430951196083</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,7 +9005,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9017,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>223.122899967847</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9719,7 +9719,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>409.6522249143353</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9731,13 +9731,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>438.5811111539143</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>298.4852906721864</v>
       </c>
       <c r="P27" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10202,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>342.4574509263909</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>609.3287968270082</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10673,19 +10673,19 @@
         <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>405.2384673331032</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10910,16 +10910,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095479</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11080,7 +11080,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q41" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11150,16 +11150,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O42" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11381,22 +11381,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>45.38170695708288</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.9636180770613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23500,16 +23500,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>99.52188106615247</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>257.9349795978357</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>304.5664151603045</v>
+        <v>300.8359558898185</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>240.9640074587141</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>16.18095338419408</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>13.24051286863516</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24211,7 +24211,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>159.4755493687297</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I23" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>70.8571450340435</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V23" t="n">
-        <v>116.6709528382715</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>226.7962030080129</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>130.6606576559745</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>246.9958951047302</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>48.11155155166284</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>40.07348056204205</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25159,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>40.07348056204228</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>30.80813876836424</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>9.265341793678232</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>355.5466170116335</v>
+        <v>74.74286860892676</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>8.602323162362609</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>284.4735250879063</v>
       </c>
       <c r="I41" t="n">
-        <v>103.2566162679947</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>3.915855106868136</v>
+        <v>1.24428973606534</v>
       </c>
       <c r="S41" t="n">
-        <v>131.1512900378948</v>
+        <v>128.479724667092</v>
       </c>
       <c r="T41" t="n">
-        <v>187.5684669457123</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>216.8265074284794</v>
       </c>
       <c r="V41" t="n">
-        <v>304.9886117330516</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>349.1893841750058</v>
       </c>
       <c r="Y41" t="n">
-        <v>358.8286725181397</v>
+        <v>356.1571071473369</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>149.6588090339231</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>134.8059372842055</v>
+        <v>132.1343719134027</v>
       </c>
       <c r="D43" t="n">
-        <v>120.3796524960453</v>
+        <v>117.7080871252425</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>119.3839805978888</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>130.202818520281</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.96485000328366</v>
+        <v>86.29328463248086</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.3309173665923</v>
       </c>
       <c r="T43" t="n">
-        <v>199.6647318429831</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>248.8872743700529</v>
+        <v>246.2157089992501</v>
       </c>
       <c r="V43" t="n">
-        <v>229.6224222569189</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>246.799968577669</v>
+        <v>244.1284032068662</v>
       </c>
       <c r="X43" t="n">
-        <v>18.67700634273709</v>
+        <v>195.3708241535788</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>360.121103413015</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>375.3339984864117</v>
+        <v>372.6624331156089</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>103.2566162679947</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.24428973606534</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.5684669457123</v>
+        <v>18.61142707653809</v>
       </c>
       <c r="U44" t="n">
-        <v>219.4980727992822</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>304.9886117330516</v>
+        <v>302.3170463622488</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>263.2126865512045</v>
+        <v>356.1571071473369</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>132.1343719134027</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>117.6345291781216</v>
       </c>
       <c r="F46" t="n">
-        <v>122.0555459686916</v>
+        <v>119.3839805978888</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>130.202818520281</v>
       </c>
       <c r="H46" t="n">
-        <v>120.2266360576558</v>
+        <v>117.555070686853</v>
       </c>
       <c r="I46" t="n">
-        <v>98.06635163882774</v>
+        <v>95.39478626802494</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.62696071874579</v>
+        <v>86.29328463248086</v>
       </c>
       <c r="S46" t="n">
-        <v>167.090793508811</v>
+        <v>164.4192281380082</v>
       </c>
       <c r="T46" t="n">
-        <v>199.6647318429831</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>248.8872743700529</v>
+        <v>226.238080850267</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>246.799968577669</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>198.0423895243816</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>184.5122457302551</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>576218.8171230101</v>
+        <v>576218.8171230098</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>576218.8171230098</v>
+        <v>576218.8171230099</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>576218.8171230098</v>
+        <v>576218.8171230099</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>610418.0338225851</v>
+        <v>613129.4055174128</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>610418.033822585</v>
+        <v>613129.4055174128</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610418.033822585</v>
+        <v>613129.4055174128</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>485437.145297031</v>
+        <v>489628.5971209689</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>485437.1452970312</v>
+        <v>489628.5971209689</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>649195.8411360839</v>
+      </c>
+      <c r="C2" t="n">
         <v>649195.8411360843</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
+        <v>649195.8411360843</v>
+      </c>
+      <c r="E2" t="n">
+        <v>610114.0416596584</v>
+      </c>
+      <c r="F2" t="n">
+        <v>610114.0416596583</v>
+      </c>
+      <c r="G2" t="n">
+        <v>610114.0416596582</v>
+      </c>
+      <c r="H2" t="n">
+        <v>610114.0416596581</v>
+      </c>
+      <c r="I2" t="n">
+        <v>610114.0416596582</v>
+      </c>
+      <c r="J2" t="n">
+        <v>610114.0416596584</v>
+      </c>
+      <c r="K2" t="n">
+        <v>610114.0416596581</v>
+      </c>
+      <c r="L2" t="n">
         <v>649195.8411360844</v>
       </c>
-      <c r="D2" t="n">
-        <v>649195.8411360842</v>
-      </c>
-      <c r="E2" t="n">
-        <v>610114.0416596581</v>
-      </c>
-      <c r="F2" t="n">
-        <v>610114.0416596584</v>
-      </c>
-      <c r="G2" t="n">
-        <v>610114.0416596583</v>
-      </c>
-      <c r="H2" t="n">
-        <v>610114.0416596583</v>
-      </c>
-      <c r="I2" t="n">
-        <v>610114.0416596581</v>
-      </c>
-      <c r="J2" t="n">
-        <v>610114.0416596583</v>
-      </c>
-      <c r="K2" t="n">
-        <v>610114.0416596582</v>
-      </c>
-      <c r="L2" t="n">
-        <v>646324.9769886195</v>
-      </c>
       <c r="M2" t="n">
-        <v>646324.9769886195</v>
+        <v>649195.8411360845</v>
       </c>
       <c r="N2" t="n">
-        <v>646324.9769886193</v>
+        <v>649195.8411360859</v>
       </c>
       <c r="O2" t="n">
-        <v>513992.2714909744</v>
+        <v>518430.2793045554</v>
       </c>
       <c r="P2" t="n">
-        <v>513992.2714909744</v>
+        <v>518430.2793045554</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
-        <v>59792.94367108783</v>
+        <v>54310.06889156254</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5271.742273651963</v>
       </c>
       <c r="E3" t="n">
         <v>75193.01957945315</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>229932.4539450566</v>
       </c>
       <c r="K3" t="n">
-        <v>47632.88962323412</v>
+        <v>43265.06370337684</v>
       </c>
       <c r="L3" t="n">
-        <v>26957.70357637212</v>
+        <v>33390.19626763446</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>154346.0890704043</v>
       </c>
       <c r="C4" t="n">
-        <v>121801.4438820496</v>
+        <v>124785.7126495047</v>
       </c>
       <c r="D4" t="n">
         <v>121801.4438820496</v>
       </c>
       <c r="E4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="F4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="G4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183768</v>
       </c>
       <c r="H4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="I4" t="n">
-        <v>97239.09137183768</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="J4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183774</v>
       </c>
       <c r="K4" t="n">
-        <v>97239.09137183767</v>
+        <v>97239.09137183776</v>
       </c>
       <c r="L4" t="n">
-        <v>120035.3689024556</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="M4" t="n">
-        <v>120035.3689024555</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>120035.3689024556</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
-        <v>36131.19169374216</v>
+        <v>38952.30804262972</v>
       </c>
       <c r="P4" t="n">
-        <v>36131.19169374216</v>
+        <v>38952.30804262972</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>80838.13705512779</v>
+        <v>79806.29231946789</v>
       </c>
       <c r="D5" t="n">
         <v>80838.13705512779</v>
@@ -26487,31 +26487,31 @@
         <v>55112.2895089091</v>
       </c>
       <c r="H5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="I5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="J5" t="n">
-        <v>55112.2895089091</v>
+        <v>55112.28950890911</v>
       </c>
       <c r="K5" t="n">
         <v>55112.2895089091</v>
       </c>
       <c r="L5" t="n">
-        <v>57945.17348636164</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="M5" t="n">
-        <v>57945.17348636164</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>57945.17348636164</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>50043.42103258033</v>
+        <v>50268.01686173835</v>
       </c>
       <c r="P5" t="n">
-        <v>50043.42103258033</v>
+        <v>50268.01686173835</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>227068.4887967619</v>
+        <v>227068.4887967615</v>
       </c>
       <c r="C6" t="n">
-        <v>386763.3165278191</v>
+        <v>390293.7672755492</v>
       </c>
       <c r="D6" t="n">
-        <v>446556.2601989068</v>
+        <v>441284.5179252549</v>
       </c>
       <c r="E6" t="n">
-        <v>382569.6411994582</v>
+        <v>382461.0806453573</v>
       </c>
       <c r="F6" t="n">
-        <v>457762.6607789117</v>
+        <v>457654.1002248104</v>
       </c>
       <c r="G6" t="n">
-        <v>457762.6607789116</v>
+        <v>457654.1002248102</v>
       </c>
       <c r="H6" t="n">
-        <v>457762.6607789116</v>
+        <v>457654.10022481</v>
       </c>
       <c r="I6" t="n">
-        <v>457762.6607789113</v>
+        <v>457654.1002248101</v>
       </c>
       <c r="J6" t="n">
-        <v>227830.206833855</v>
+        <v>227721.6462797538</v>
       </c>
       <c r="K6" t="n">
-        <v>410129.7711556773</v>
+        <v>414389.0365214332</v>
       </c>
       <c r="L6" t="n">
-        <v>441386.7310234302</v>
+        <v>435792.4635376105</v>
       </c>
       <c r="M6" t="n">
-        <v>468344.4345998024</v>
+        <v>469182.6598052452</v>
       </c>
       <c r="N6" t="n">
-        <v>468344.4345998021</v>
+        <v>469182.6598052466</v>
       </c>
       <c r="O6" t="n">
-        <v>427817.6587646519</v>
+        <v>428846.716728433</v>
       </c>
       <c r="P6" t="n">
-        <v>427817.6587646519</v>
+        <v>428846.716728433</v>
       </c>
     </row>
   </sheetData>
@@ -26703,31 +26703,31 @@
         <v>93.99127447431644</v>
       </c>
       <c r="H2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M2" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="P2" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4890963014441</v>
+        <v>759.5179657807219</v>
       </c>
       <c r="D4" t="n">
         <v>776.4890963014441</v>
@@ -26816,22 +26816,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>33.69712947046515</v>
+        <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>185.076970032149</v>
+        <v>168.1058395114267</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>16.97113052072228</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692952</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>185.076970032149</v>
+        <v>168.1058395114266</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.97113052072228</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
-        <v>185.076970032149</v>
+        <v>168.1058395114267</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>16.97113052072228</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>108.4573985525539</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>209.1531518710278</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>77.71759216179177</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27557,7 +27557,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27587,7 +27587,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>116.4854777676757</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.16638635292207</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>173.4592399476374</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>156.620995681427</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.3730972338552</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>39.08473336721357</v>
+        <v>289.2733157253949</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28067,19 +28067,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>70.89153532203272</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>66.12369447580232</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28751,10 +28751,10 @@
         <v>93.99127447431644</v>
       </c>
       <c r="L19" t="n">
-        <v>93.9912744743167</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M19" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431675</v>
       </c>
       <c r="N19" t="n">
         <v>93.99127447431644</v>
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K22" t="n">
-        <v>93.99127447431684</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K25" t="n">
-        <v>93.99127447431673</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431596</v>
       </c>
       <c r="M25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y25" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y32" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="33">
@@ -29906,31 +29906,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>79.2691900168663</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -29951,31 +29951,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.6884039447816</v>
+        <v>35.71049010668751</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y34" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -30176,43 +30176,43 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="N37" t="n">
-        <v>44.16827807367457</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>127.6884039447816</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="39">
@@ -30380,34 +30380,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>79.26919001686645</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y40" t="n">
-        <v>127.6884039447816</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="C41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="D41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="E41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="F41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="G41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="I41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30507,28 +30507,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="S41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="T41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="U41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="V41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="W41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="X41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Y41" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="C43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="D43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="E43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="F43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="G43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="I43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="J43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="K43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="L43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="N43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="O43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="P43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="R43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="S43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="T43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="U43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="V43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="W43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="X43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Y43" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="C44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="D44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="E44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="F44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="G44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="I44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30744,28 +30744,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="S44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="T44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="U44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="V44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="W44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="X44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Y44" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="C46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="D46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="E46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="F46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="G46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="H46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="I46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="J46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="K46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="L46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="M46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="N46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="O46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="P46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="R46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="S46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="T46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="U46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="V46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="W46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="X46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
       <c r="Y46" t="n">
-        <v>33.69712947046514</v>
+        <v>36.36869484126794</v>
       </c>
     </row>
   </sheetData>
@@ -34704,7 +34704,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>117.1778397212393</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
@@ -34713,13 +34713,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>250.071647109874</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>227.4725996515693</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>119.5138671714318</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>425.1941012797557</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.81159323632111</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>662.4019911217769</v>
+        <v>626.2013789301583</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35272,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.05004611020335</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35500,16 +35500,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35667,7 +35667,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35737,16 +35737,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>137.7507871136803</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,10 +36047,10 @@
         <v>176.6529321611264</v>
       </c>
       <c r="L19" t="n">
-        <v>259.7767692963367</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M19" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271087</v>
       </c>
       <c r="N19" t="n">
         <v>279.0313088492752</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6529321611268</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L22" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M22" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N22" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O22" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P22" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>320.0552895810019</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36451,13 +36451,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6529321611267</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L25" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963359</v>
       </c>
       <c r="M25" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N25" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O25" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P25" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>346.1939891046024</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>205.7977317832975</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36922,16 +36922,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>249.769892037502</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>516.9416747776963</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>49.19470254470724</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
@@ -37247,7 +37247,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>131.1451679549341</v>
+        <v>39.16725411683999</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5509084442144</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37472,22 +37472,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>316.4712935610698</v>
       </c>
       <c r="N37" t="n">
-        <v>229.2083124486334</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>248.7754400827397</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>5.026424471032783</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37630,16 +37630,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553813</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>97.61391647262252</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37712,7 +37712,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>264.3092243918252</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37724,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37870,16 +37870,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O42" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>3.622641998306072</v>
+        <v>6.294207369108868</v>
       </c>
       <c r="K43" t="n">
-        <v>116.3587871572751</v>
+        <v>119.0303525280779</v>
       </c>
       <c r="L43" t="n">
-        <v>199.4826242924851</v>
+        <v>202.1541896632879</v>
       </c>
       <c r="M43" t="n">
-        <v>221.8704409232571</v>
+        <v>224.5420062940599</v>
       </c>
       <c r="N43" t="n">
-        <v>218.7371638454239</v>
+        <v>221.4087292162267</v>
       </c>
       <c r="O43" t="n">
-        <v>198.045379007544</v>
+        <v>200.7169443783468</v>
       </c>
       <c r="P43" t="n">
-        <v>154.7841656084233</v>
+        <v>157.4557309792261</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.15389348061763</v>
+        <v>39.82545885142042</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38101,22 +38101,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>3.622641998306072</v>
+        <v>6.294207369108868</v>
       </c>
       <c r="K46" t="n">
-        <v>116.3587871572751</v>
+        <v>119.0303525280779</v>
       </c>
       <c r="L46" t="n">
-        <v>199.4826242924851</v>
+        <v>202.1541896632879</v>
       </c>
       <c r="M46" t="n">
-        <v>221.8704409232571</v>
+        <v>224.5420062940599</v>
       </c>
       <c r="N46" t="n">
-        <v>218.7371638454239</v>
+        <v>221.4087292162267</v>
       </c>
       <c r="O46" t="n">
-        <v>198.045379007544</v>
+        <v>200.7169443783468</v>
       </c>
       <c r="P46" t="n">
-        <v>154.7841656084233</v>
+        <v>157.4557309792261</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.15389348061763</v>
+        <v>39.82545885142042</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
